--- a/doc/Excel Tactics Shared Expense Calculator Basic - cT Beispiel.xlsx
+++ b/doc/Excel Tactics Shared Expense Calculator Basic - cT Beispiel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jwerner\dev\dd\cost-splitting\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FE3B863-4C1F-4EDE-BD33-76F23C2EBB45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B75136-1A9B-41AB-ABF8-242DAE95614E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="300" windowWidth="28335" windowHeight="14430" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>Description</t>
   </si>
@@ -145,15 +145,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t>&gt;0,01</t>
-  </si>
-  <si>
-    <t>MIN</t>
   </si>
   <si>
     <t>Anna</t>
@@ -974,7 +965,7 @@
   <dimension ref="B2:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1012,26 +1003,26 @@
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="16">
         <v>39.950000000000003</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H3" s="7">
         <f t="shared" ref="H3:H13" si="0">IF(NOT(ISBLANK($B3)),COUNTA($J3:$N3),"")</f>
@@ -1051,24 +1042,22 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="16">
         <v>365</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>4</v>
-      </c>
+      <c r="K4" s="17"/>
       <c r="L4" s="17" t="s">
         <v>4</v>
       </c>
@@ -1077,13 +1066,13 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="16">
         <v>96</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="0"/>
@@ -1103,13 +1092,13 @@
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" s="16">
         <v>13.79</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" si="0"/>
@@ -1129,13 +1118,13 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D7" s="16">
         <v>14.5</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H7" s="7">
         <f t="shared" si="0"/>
@@ -1155,13 +1144,13 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" s="16">
         <v>77.599999999999994</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
@@ -1181,21 +1170,19 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D9" s="16">
         <v>28.56</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J9" s="17"/>
       <c r="K9" s="17" t="s">
         <v>4</v>
       </c>
@@ -1275,15 +1262,15 @@
       </c>
       <c r="J14" s="19">
         <f t="array" ref="J14">SUM(IF(NOT(ISBLANK(J3:J13)),(1/$H$3:$H$13)*$D$3:$D$13))-SUMIF($F$3:$F$13,J2,$D$3:$D$13)</f>
-        <v>158.06</v>
+        <v>209.37333333333333</v>
       </c>
       <c r="K14" s="19">
         <f t="array" ref="K14">SUM(IF(NOT(ISBLANK(K3:K13)),(1/$H$3:$H$13)*$D$3:$D$13))-SUMIF($F$3:$F$13,K2,$D$3:$D$13)</f>
-        <v>-259.36</v>
+        <v>-376.26666666666671</v>
       </c>
       <c r="L14" s="19">
         <f t="array" ref="L14">SUM(IF(NOT(ISBLANK(L3:L13)),(1/$H$3:$H$13)*$D$3:$D$13))-SUMIF($F$3:$F$13,L2,$D$3:$D$13)</f>
-        <v>101.30000000000001</v>
+        <v>166.89333333333332</v>
       </c>
       <c r="M14" s="19">
         <f t="array" ref="M14">SUM(IF(NOT(ISBLANK(M3:M13)),(1/$H$3:$H$13)*$D$3:$D$13))-SUMIF($F$3:$F$13,M2,$D$3:$D$13)</f>
@@ -1317,7 +1304,7 @@
     <row r="17" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="str">
         <f>IF(NOT('Settlement Transactions'!B4=""),INDEX('Shared Expenses'!$J$2:$N$2,'Settlement Transactions'!C4)&amp;" pays "&amp;INDEX('Shared Expenses'!$J$2:$N$2,'Settlement Transactions'!B4)&amp;" $"&amp;TEXT('Settlement Transactions'!D4,"#,00")&amp;".","")</f>
-        <v>Anna pays Ben $158,06.</v>
+        <v>Anna pays Ben $209,37.</v>
       </c>
       <c r="E17" s="23"/>
       <c r="F17" s="35" t="s">
@@ -1337,7 +1324,7 @@
     <row r="18" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="str">
         <f>IF(NOT('Settlement Transactions'!B5=""),INDEX('Shared Expenses'!$J$2:$N$2,'Settlement Transactions'!C5)&amp;" pays "&amp;INDEX('Shared Expenses'!$J$2:$N$2,'Settlement Transactions'!B5)&amp;" $"&amp;TEXT('Settlement Transactions'!D5,"#,00")&amp;".","")</f>
-        <v>Clara pays Ben $101,30.</v>
+        <v>Clara pays Ben $166,89.</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="35"/>
@@ -1529,10 +1516,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="B2:V38"/>
+  <dimension ref="B2:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1542,7 +1529,7 @@
     <col min="5" max="5" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1572,23 +1559,8 @@
         <f>IFERROR(INDEX('Shared Expenses'!$J$2:$N$2,1,COLUMN()-COLUMN(Payer)+1),"")</f>
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="37" t="s">
         <v>15</v>
       </c>
@@ -1596,15 +1568,15 @@
       <c r="D3" s="37"/>
       <c r="F3" s="4">
         <f>'Shared Expenses'!J14</f>
-        <v>158.06</v>
+        <v>209.37333333333333</v>
       </c>
       <c r="G3" s="4">
         <f>'Shared Expenses'!K14</f>
-        <v>-259.36</v>
+        <v>-376.26666666666671</v>
       </c>
       <c r="H3" s="4">
         <f>'Shared Expenses'!L14</f>
-        <v>101.30000000000001</v>
+        <v>166.89333333333332</v>
       </c>
       <c r="I3" s="4">
         <f>'Shared Expenses'!M14</f>
@@ -1616,7 +1588,7 @@
       </c>
       <c r="K3" s="38"/>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4">
         <f t="shared" ref="B4:B34" si="0">IF(MAX($F3:$J3)&gt;0.01,MATCH(MIN($F3:$J3),$F3:$J3,0),"")</f>
         <v>2</v>
@@ -1627,7 +1599,7 @@
       </c>
       <c r="D4" s="2">
         <f>IF(MAX($F3:$J3)&gt;0.01,MIN(ABS(INDEX($F3:$J3,'Settlement Transactions'!B4)),ABS(INDEX($F3:$J3,'Settlement Transactions'!C4))),"")</f>
-        <v>158.06</v>
+        <v>209.37333333333333</v>
       </c>
       <c r="F4" s="4">
         <f>IF(MAX($F3:$J3)&gt;0.01,F3+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B4,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C4,-1,0))*'Settlement Transactions'!$D4,"")</f>
@@ -1635,11 +1607,11 @@
       </c>
       <c r="G4" s="4">
         <f>IF(MAX($F3:$J3)&gt;0.01,G3+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B4,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C4,-1,0))*'Settlement Transactions'!$D4,"")</f>
-        <v>-101.30000000000001</v>
+        <v>-166.89333333333337</v>
       </c>
       <c r="H4" s="4">
         <f>IF(MAX($F3:$J3)&gt;0.01,H3+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B4,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C4,-1,0))*'Settlement Transactions'!$D4,"")</f>
-        <v>101.30000000000001</v>
+        <v>166.89333333333332</v>
       </c>
       <c r="I4" s="4">
         <f>IF(MAX($F3:$J3)&gt;0.01,I3+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B4,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C4,-1,0))*'Settlement Transactions'!$D4,"")</f>
@@ -1649,36 +1621,10 @@
         <f>IF(MAX($F3:$J3)&gt;0.01,J3+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B4,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C4,-1,0))*'Settlement Transactions'!$D4,"")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="38">
-        <f>MAX($F3:$J3)</f>
-        <v>158.06</v>
-      </c>
-      <c r="N4" t="b">
-        <f>M4&gt;0.01</f>
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <f>MATCH(MIN($F3:$J3),$F3:$J3,0)</f>
-        <v>2</v>
-      </c>
-      <c r="Q4" s="38">
-        <f>MAX($F3:$J3)</f>
-        <v>158.06</v>
-      </c>
-      <c r="S4">
-        <f>MATCH(MAX($F3:$J3),$F3:$J3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <f>ABS(INDEX($F3:$J3,'Settlement Transactions'!B4))</f>
-        <v>259.36</v>
-      </c>
-      <c r="V4">
-        <f>ABS(INDEX($F3:$J3,'Settlement Transactions'!C4))</f>
-        <v>158.06</v>
-      </c>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M4" s="38"/>
+      <c r="Q4" s="38"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1689,7 +1635,7 @@
       </c>
       <c r="D5" s="2">
         <f>IF(MAX($F4:$J4)&gt;0.01,MIN(ABS(INDEX($F4:$J4,'Settlement Transactions'!B5)),ABS(INDEX($F4:$J4,'Settlement Transactions'!C5))),"")</f>
-        <v>101.30000000000001</v>
+        <v>166.89333333333332</v>
       </c>
       <c r="F5" s="4">
         <f>IF(MAX($F4:$J4)&gt;0.01,F4+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B5,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C5,-1,0))*'Settlement Transactions'!$D5,"")</f>
@@ -1697,7 +1643,7 @@
       </c>
       <c r="G5" s="4">
         <f>IF(MAX($F4:$J4)&gt;0.01,G4+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B5,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C5,-1,0))*'Settlement Transactions'!$D5,"")</f>
-        <v>0</v>
+        <v>-5.6843418860808015E-14</v>
       </c>
       <c r="H5" s="4">
         <f>IF(MAX($F4:$J4)&gt;0.01,H4+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B5,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C5,-1,0))*'Settlement Transactions'!$D5,"")</f>
@@ -1711,28 +1657,10 @@
         <f>IF(MAX($F4:$J4)&gt;0.01,J4+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B5,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C5,-1,0))*'Settlement Transactions'!$D5,"")</f>
         <v>0</v>
       </c>
-      <c r="M5" s="38">
-        <f t="shared" ref="M5:M8" si="2">MAX($F4:$J4)</f>
-        <v>101.30000000000001</v>
-      </c>
-      <c r="N5" t="b">
-        <f t="shared" ref="N5:N8" si="3">M5&gt;0.01</f>
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <f t="shared" ref="O5:O7" si="4">MATCH(MIN($F4:$J4),$F4:$J4,0)</f>
-        <v>2</v>
-      </c>
-      <c r="Q5" s="38">
-        <f t="shared" ref="Q5:Q7" si="5">MAX($F4:$J4)</f>
-        <v>101.30000000000001</v>
-      </c>
-      <c r="S5">
-        <f t="shared" ref="S5:S7" si="6">MATCH(MAX($F4:$J4),$F4:$J4,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M5" s="38"/>
+      <c r="Q5" s="38"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1765,28 +1693,10 @@
         <f>IF(MAX($F5:$J5)&gt;0.01,J5+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B6,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C6,-1,0))*'Settlement Transactions'!$D6,"")</f>
         <v/>
       </c>
-      <c r="M6" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N6" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Q6" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M6" s="38"/>
+      <c r="Q6" s="38"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1819,28 +1729,10 @@
         <f>IF(MAX($F6:$J6)&gt;0.01,J6+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B7,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C7,-1,0))*'Settlement Transactions'!$D7,"")</f>
         <v/>
       </c>
-      <c r="M7" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N7" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O7" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q7" s="38">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S7" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M7" s="38"/>
+      <c r="Q7" s="38"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1873,12 +1765,9 @@
         <f>IF(MAX($F7:$J7)&gt;0.01,J7+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B8,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C8,-1,0))*'Settlement Transactions'!$D8,"")</f>
         <v/>
       </c>
-      <c r="M8" s="38">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M8" s="38"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1912,7 +1801,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1946,7 +1835,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1980,7 +1869,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2014,7 +1903,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2048,7 +1937,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2082,7 +1971,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2116,7 +2005,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v/>

--- a/doc/Excel Tactics Shared Expense Calculator Basic - cT Beispiel.xlsx
+++ b/doc/Excel Tactics Shared Expense Calculator Basic - cT Beispiel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jwerner\dev\dd\cost-splitting\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\jwerner\dd\cost-splitting\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B75136-1A9B-41AB-ABF8-242DAE95614E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB788053-94B6-4601-88AA-2AA198C96FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="28335" windowHeight="14430" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shared Expenses" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="Participants">OFFSET('Shared Expenses'!$J$2,,,,COUNTA('Shared Expenses'!$J$2:$N$2))</definedName>
     <definedName name="Payer">'Settlement Transactions'!$F$2</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>Description</t>
   </si>
@@ -375,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -424,6 +424,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -445,49 +446,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="10">
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <strike/>
-        <color theme="0"/>
+        <color rgb="FF006600"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="dashed">
-          <color auto="1"/>
-        </left>
-        <right style="dashed">
-          <color auto="1"/>
-        </right>
-        <top style="dashed">
-          <color auto="1"/>
-        </top>
-        <bottom style="dashed">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -534,8 +504,41 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="dashed">
+          <color auto="1"/>
+        </left>
+        <right style="dashed">
+          <color auto="1"/>
+        </right>
+        <top style="dashed">
+          <color auto="1"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="lightGrid">
           <fgColor theme="0"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -556,6 +559,9 @@
         <top style="dashed">
           <color auto="1"/>
         </top>
+        <bottom style="dashed">
+          <color auto="1"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -606,21 +612,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="0"/>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF006600"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -641,9 +632,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -681,9 +672,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -716,26 +707,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -768,26 +742,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -962,10 +919,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="B2:S25"/>
+  <dimension ref="B2:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -985,7 +942,7 @@
     <col min="20" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +971,7 @@
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
         <v>21</v>
       </c>
@@ -1040,7 +997,7 @@
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
         <v>22</v>
       </c>
@@ -1052,19 +1009,21 @@
       </c>
       <c r="H4" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="17"/>
+      <c r="K4" s="17" t="s">
+        <v>4</v>
+      </c>
       <c r="L4" s="17" t="s">
         <v>4</v>
       </c>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
@@ -1090,7 +1049,7 @@
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
@@ -1116,7 +1075,7 @@
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
         <v>25</v>
       </c>
@@ -1142,7 +1101,7 @@
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
         <v>26</v>
       </c>
@@ -1168,7 +1127,7 @@
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>27</v>
       </c>
@@ -1180,9 +1139,11 @@
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J9" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>4</v>
+      </c>
       <c r="K9" s="17" t="s">
         <v>4</v>
       </c>
@@ -1192,7 +1153,7 @@
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="15"/>
       <c r="D10" s="16"/>
       <c r="F10" s="15"/>
@@ -1206,7 +1167,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="15"/>
       <c r="D11" s="16"/>
       <c r="F11" s="15"/>
@@ -1220,7 +1181,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="15"/>
       <c r="D12" s="16"/>
       <c r="F12" s="15"/>
@@ -1234,7 +1195,7 @@
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="2:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:16" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1252,7 +1213,7 @@
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="2:19" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>5</v>
       </c>
@@ -1262,15 +1223,15 @@
       </c>
       <c r="J14" s="19">
         <f t="array" ref="J14">SUM(IF(NOT(ISBLANK(J3:J13)),(1/$H$3:$H$13)*$D$3:$D$13))-SUMIF($F$3:$F$13,J2,$D$3:$D$13)</f>
-        <v>209.37333333333333</v>
+        <v>158.06</v>
       </c>
       <c r="K14" s="19">
         <f t="array" ref="K14">SUM(IF(NOT(ISBLANK(K3:K13)),(1/$H$3:$H$13)*$D$3:$D$13))-SUMIF($F$3:$F$13,K2,$D$3:$D$13)</f>
-        <v>-376.26666666666671</v>
+        <v>-259.36</v>
       </c>
       <c r="L14" s="19">
         <f t="array" ref="L14">SUM(IF(NOT(ISBLANK(L3:L13)),(1/$H$3:$H$13)*$D$3:$D$13))-SUMIF($F$3:$F$13,L2,$D$3:$D$13)</f>
-        <v>166.89333333333332</v>
+        <v>101.30000000000001</v>
       </c>
       <c r="M14" s="19">
         <f t="array" ref="M14">SUM(IF(NOT(ISBLANK(M3:M13)),(1/$H$3:$H$13)*$D$3:$D$13))-SUMIF($F$3:$F$13,M2,$D$3:$D$13)</f>
@@ -1280,11 +1241,9 @@
         <f t="array" ref="N14">SUM(IF(NOT(ISBLANK(N3:N13)),(1/$H$3:$H$13)*$D$3:$D$13))-SUMIF($F$3:$F$13,N2,$D$3:$D$13)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-    </row>
-    <row r="15" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="2:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
         <v>6</v>
       </c>
@@ -1304,40 +1263,40 @@
     <row r="17" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="str">
         <f>IF(NOT('Settlement Transactions'!B4=""),INDEX('Shared Expenses'!$J$2:$N$2,'Settlement Transactions'!C4)&amp;" pays "&amp;INDEX('Shared Expenses'!$J$2:$N$2,'Settlement Transactions'!B4)&amp;" $"&amp;TEXT('Settlement Transactions'!D4,"#,00")&amp;".","")</f>
-        <v>Anna pays Ben $209,37.</v>
+        <v>Anna pays Ben $158,06.</v>
       </c>
       <c r="E17" s="23"/>
-      <c r="F17" s="35" t="s">
+      <c r="F17" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="37"/>
     </row>
     <row r="18" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="str">
         <f>IF(NOT('Settlement Transactions'!B5=""),INDEX('Shared Expenses'!$J$2:$N$2,'Settlement Transactions'!C5)&amp;" pays "&amp;INDEX('Shared Expenses'!$J$2:$N$2,'Settlement Transactions'!B5)&amp;" $"&amp;TEXT('Settlement Transactions'!D5,"#,00")&amp;".","")</f>
-        <v>Clara pays Ben $166,89.</v>
+        <v>Clara pays Ben $101,30.</v>
       </c>
       <c r="E18" s="23"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="37"/>
     </row>
     <row r="19" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="str">
@@ -1345,19 +1304,19 @@
         <v/>
       </c>
       <c r="E19" s="23"/>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="33"/>
     </row>
     <row r="20" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="str">
@@ -1365,19 +1324,19 @@
         <v/>
       </c>
       <c r="E20" s="23"/>
-      <c r="F20" s="31" t="s">
+      <c r="F20" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="33"/>
     </row>
     <row r="21" spans="2:16" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="8" t="str">
@@ -1401,19 +1360,19 @@
     </row>
     <row r="22" spans="2:16" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E22" s="23"/>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="35"/>
     </row>
     <row r="23" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E23" s="23"/>
@@ -1448,14 +1407,9 @@
     <mergeCell ref="F22:P22"/>
     <mergeCell ref="F17:P18"/>
   </mergeCells>
-  <conditionalFormatting sqref="J14:N14">
-    <cfRule type="expression" dxfId="10" priority="47">
-      <formula>J14&lt;0.009</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H6 H13">
-    <cfRule type="expression" dxfId="9" priority="46">
-      <formula>ISBLANK(H3)</formula>
+  <conditionalFormatting sqref="B3:B12">
+    <cfRule type="expression" dxfId="9" priority="38">
+      <formula>AND(NOT(ISBLANK($B2)),ISBLANK($B3))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D13">
@@ -1463,38 +1417,38 @@
       <formula>AND(NOT(ISBLANK($B3)),NOT(ISNUMBER($D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B12">
-    <cfRule type="expression" dxfId="7" priority="38">
-      <formula>AND(NOT(ISBLANK($B2)),ISBLANK($B3))</formula>
+  <conditionalFormatting sqref="F3:F13">
+    <cfRule type="expression" dxfId="7" priority="48">
+      <formula>AND(NOT(ISBLANK($B3)),ISBLANK($F3))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="49">
+      <formula>AND(ISERROR(MATCH(F3,$J$2:$N$2,0)),NOT(ISBLANK(B3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H13">
+    <cfRule type="expression" dxfId="5" priority="25">
+      <formula>ISBLANK(H3)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:N2">
-    <cfRule type="expression" dxfId="6" priority="36">
+    <cfRule type="expression" dxfId="4" priority="36">
       <formula>AND(NOT(ISBLANK(I$2)),ISBLANK(J$2))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:H12">
-    <cfRule type="expression" dxfId="5" priority="25">
-      <formula>ISBLANK(H7)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J3:N13">
-    <cfRule type="expression" dxfId="4" priority="37">
+    <cfRule type="expression" dxfId="3" priority="37">
       <formula>AND(NOT(ISBLANK(J$2)),NOT(ISBLANK($B3)),$H3&lt;1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="40">
+    <cfRule type="expression" dxfId="2" priority="40">
       <formula>AND(NOT(ISBLANK(J$2)),ISBLANK($B3))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="1" priority="43">
       <formula>AND(NOT(ISBLANK(J$2)),NOT(ISBLANK($B3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F13">
-    <cfRule type="expression" dxfId="1" priority="48">
-      <formula>AND(NOT(ISBLANK($B3)),ISBLANK($F3))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="49">
-      <formula>AND(ISERROR(MATCH(F3,$J$2:$N$2,0)),NOT(ISBLANK(B3)))</formula>
+  <conditionalFormatting sqref="J14:N14">
+    <cfRule type="expression" dxfId="0" priority="47">
+      <formula>J14&lt;0.009</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -1518,8 +1472,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="B2:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,22 +1515,22 @@
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
       <c r="F3" s="4">
         <f>'Shared Expenses'!J14</f>
-        <v>209.37333333333333</v>
+        <v>158.06</v>
       </c>
       <c r="G3" s="4">
         <f>'Shared Expenses'!K14</f>
-        <v>-376.26666666666671</v>
+        <v>-259.36</v>
       </c>
       <c r="H3" s="4">
         <f>'Shared Expenses'!L14</f>
-        <v>166.89333333333332</v>
+        <v>101.30000000000001</v>
       </c>
       <c r="I3" s="4">
         <f>'Shared Expenses'!M14</f>
@@ -1586,7 +1540,7 @@
         <f>'Shared Expenses'!N14</f>
         <v>0</v>
       </c>
-      <c r="K3" s="38"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4">
@@ -1599,7 +1553,7 @@
       </c>
       <c r="D4" s="2">
         <f>IF(MAX($F3:$J3)&gt;0.01,MIN(ABS(INDEX($F3:$J3,'Settlement Transactions'!B4)),ABS(INDEX($F3:$J3,'Settlement Transactions'!C4))),"")</f>
-        <v>209.37333333333333</v>
+        <v>158.06</v>
       </c>
       <c r="F4" s="4">
         <f>IF(MAX($F3:$J3)&gt;0.01,F3+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B4,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C4,-1,0))*'Settlement Transactions'!$D4,"")</f>
@@ -1607,11 +1561,11 @@
       </c>
       <c r="G4" s="4">
         <f>IF(MAX($F3:$J3)&gt;0.01,G3+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B4,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C4,-1,0))*'Settlement Transactions'!$D4,"")</f>
-        <v>-166.89333333333337</v>
+        <v>-101.30000000000001</v>
       </c>
       <c r="H4" s="4">
         <f>IF(MAX($F3:$J3)&gt;0.01,H3+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B4,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C4,-1,0))*'Settlement Transactions'!$D4,"")</f>
-        <v>166.89333333333332</v>
+        <v>101.30000000000001</v>
       </c>
       <c r="I4" s="4">
         <f>IF(MAX($F3:$J3)&gt;0.01,I3+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B4,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C4,-1,0))*'Settlement Transactions'!$D4,"")</f>
@@ -1621,8 +1575,8 @@
         <f>IF(MAX($F3:$J3)&gt;0.01,J3+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B4,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C4,-1,0))*'Settlement Transactions'!$D4,"")</f>
         <v>0</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="Q4" s="38"/>
+      <c r="M4" s="31"/>
+      <c r="Q4" s="31"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -1635,7 +1589,7 @@
       </c>
       <c r="D5" s="2">
         <f>IF(MAX($F4:$J4)&gt;0.01,MIN(ABS(INDEX($F4:$J4,'Settlement Transactions'!B5)),ABS(INDEX($F4:$J4,'Settlement Transactions'!C5))),"")</f>
-        <v>166.89333333333332</v>
+        <v>101.30000000000001</v>
       </c>
       <c r="F5" s="4">
         <f>IF(MAX($F4:$J4)&gt;0.01,F4+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B5,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C5,-1,0))*'Settlement Transactions'!$D5,"")</f>
@@ -1643,7 +1597,7 @@
       </c>
       <c r="G5" s="4">
         <f>IF(MAX($F4:$J4)&gt;0.01,G4+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B5,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C5,-1,0))*'Settlement Transactions'!$D5,"")</f>
-        <v>-5.6843418860808015E-14</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
         <f>IF(MAX($F4:$J4)&gt;0.01,H4+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B5,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C5,-1,0))*'Settlement Transactions'!$D5,"")</f>
@@ -1657,8 +1611,8 @@
         <f>IF(MAX($F4:$J4)&gt;0.01,J4+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B5,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C5,-1,0))*'Settlement Transactions'!$D5,"")</f>
         <v>0</v>
       </c>
-      <c r="M5" s="38"/>
-      <c r="Q5" s="38"/>
+      <c r="M5" s="31"/>
+      <c r="Q5" s="31"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" t="str">
@@ -1693,8 +1647,8 @@
         <f>IF(MAX($F5:$J5)&gt;0.01,J5+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B6,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C6,-1,0))*'Settlement Transactions'!$D6,"")</f>
         <v/>
       </c>
-      <c r="M6" s="38"/>
-      <c r="Q6" s="38"/>
+      <c r="M6" s="31"/>
+      <c r="Q6" s="31"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
@@ -1729,8 +1683,8 @@
         <f>IF(MAX($F6:$J6)&gt;0.01,J6+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B7,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C7,-1,0))*'Settlement Transactions'!$D7,"")</f>
         <v/>
       </c>
-      <c r="M7" s="38"/>
-      <c r="Q7" s="38"/>
+      <c r="M7" s="31"/>
+      <c r="Q7" s="31"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" t="str">
@@ -1765,7 +1719,7 @@
         <f>IF(MAX($F7:$J7)&gt;0.01,J7+IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$B8,1,IF(COLUMN()-COLUMN(Payer)+1='Settlement Transactions'!$C8,-1,0))*'Settlement Transactions'!$D8,"")</f>
         <v/>
       </c>
-      <c r="M8" s="38"/>
+      <c r="M8" s="31"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
